--- a/hewag1975cv_de.xlsx
+++ b/hewag1975cv_de.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="profession" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -48,13 +48,19 @@
     <t xml:space="preserve">Senior Data Scientist</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysis of multi-sensor data to improve crop management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation of physical plant growth model into production code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provision and maintenance of AWS infrastructure for the Data Science team</t>
+    <t xml:space="preserve">Weiterentwicklung der AROYA-Datenplattform (Anbau von Cannabis), u.a. durch spezifische Auswertung von Sensordaten (Boden, Atmosphäre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Co-)Entwicklung diverser R-Packages (u.a. Analyse von 3D-Bilddaten, Bereitstellung von Satellitendaten, Implementierung eines physikalischen Biomassemodells)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Co-)Entwicklung von Deployment-Pipelines mittels CI/CD, Docker und AWS ECR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entwicklung einer QUARTO-basierten Webseite zum Wissensmanagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bereitstellung und Wartung der teameigenen Cloud Infrastruktur (RStudio Server, Shiny Server mittels AWS EC2)</t>
   </si>
   <si>
     <t xml:space="preserve">01/2014 - 06/2021</t>
@@ -66,13 +72,13 @@
     <t xml:space="preserve">Teamlead (Geo-)Data Science</t>
   </si>
   <si>
-    <t xml:space="preserve">Driving product innovation through exploration of new (IoT) data sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konzeption, Entwicklung und Implementierung von standardisierten Datenproduktionspipelines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachliche Anleitung und disziplinarische Führung von KollegInnen</t>
+    <t xml:space="preserve">Inhaltliche und strategische Weiterentwicklung des Produktportfolios durch Integration von externen Datenquellen (u.a. App-Daten)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konzeption und Implementierung von standardisierten Datenproduktionspipelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachliche Anleitung und disziplinarische Führung von 6-8 KollegInnen</t>
   </si>
   <si>
     <t xml:space="preserve">GfK Orange Future 2017-2018 (Talentsichtungsprogramm) </t>
@@ -81,16 +87,28 @@
     <t xml:space="preserve">GfK Führungskräfteseminar 2014-2015 </t>
   </si>
   <si>
+    <t xml:space="preserve">09/2011 – 12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GfK Geomarketing GmbH, GfK SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead Data Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachliche Leitung eines großen Forschungsprojektes zur Inwertsetzung von Mobilfunkdaten mit einem internationalen Projektteam</t>
+  </si>
+  <si>
     <t xml:space="preserve">09/2006 - 12/2013</t>
   </si>
   <si>
     <t xml:space="preserve">(Senior) Research Specialist</t>
   </si>
   <si>
-    <t xml:space="preserve">Consulting retailers and manufacturers on spatial business questions (e.g. site planning, target group modeling)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeling spatial demographics (age, income, spendings) on various scales </t>
+    <t xml:space="preserve">Leitung und Bearbeitung von Kundenprojekten mit spezifischen Fragestellungen (Zielgruppenanalysen, Expansionsplanung, u.a.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modellierung regionaler Marktkennziffern (Kaufkraftpotenziale, Marktvolumina), Schwerpunkt Mikrogeographie</t>
   </si>
   <si>
     <t xml:space="preserve">07/2003 - 07/2006</t>
@@ -102,6 +120,9 @@
     <t xml:space="preserve">Wiss. Mitarbeiter </t>
   </si>
   <si>
+    <t xml:space="preserve">Div. Lehrveranstlatungen, Schwerpunkt Methodik</t>
+  </si>
+  <si>
     <t xml:space="preserve">institution</t>
   </si>
   <si>
@@ -141,7 +162,7 @@
     <t xml:space="preserve">&gt; 15 Jahre</t>
   </si>
   <si>
-    <t xml:space="preserve">R</t>
+    <t xml:space="preserve">R / Maschine Learning</t>
   </si>
   <si>
     <t xml:space="preserve">Verarbeitung großer (Geo-)Datensätze, Entwicklung und Implementierung komplexer Datenproduktionsprozesse</t>
@@ -150,7 +171,10 @@
     <t xml:space="preserve">Entwicklung von R-Packages zur Vereinfachung wiederkehrender Arbeitsabläufe, inkl. Versionskontrolle und automatischer Tests (unit testing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Entwicklung von Vorhersagemodellen (predictive analytics) v.a. im räumlichen Kontext (Standortprognosen, regionale Marktpotenziale) mittels maschinellem Lernen</t>
+    <t xml:space="preserve">Entwicklung von Vorhersagemodellen (predictive analytics) v.a. im räumlichen Kontext (Standortprognosen, regionale Marktpotenziale)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methodenauswahl: Clusteranalysen, Regression (LM, PLS, Quantil), GLM, GAM, Decision Trees, RandomForest</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 8 Jahre</t>
@@ -177,10 +201,10 @@
     <t xml:space="preserve">Entwicklung verschiedener R Shiny Applikationen zur Veranschaulichung von Lösungsansätzen (Prototyping )</t>
   </si>
   <si>
-    <t xml:space="preserve">Div. Programmiersprachen, Softwaretools, Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL, SAS, Git, GitHub, GitLab, Docker, Ubuntu, JIRA, Confluence u.a.</t>
+    <t xml:space="preserve">Div. Programmiersprachen und Softwaretools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL, SAS, Git, GitHub, GitLab, Docker, JIRA, Confluence u.a.</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 2 Jahre</t>
@@ -303,13 +327,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
@@ -374,42 +398,42 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>15</v>
@@ -417,13 +441,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -431,55 +455,100 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -504,7 +573,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.22"/>
@@ -516,55 +585,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -583,15 +652,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.22"/>
@@ -603,109 +672,120 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/hewag1975cv_de.xlsx
+++ b/hewag1975cv_de.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">expertise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">&gt; 15 Jahre</t>
@@ -333,7 +336,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
@@ -573,7 +576,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.22"/>
@@ -652,15 +655,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.22"/>
@@ -677,115 +680,148 @@
       <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/hewag1975cv_de.xlsx
+++ b/hewag1975cv_de.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="profession" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Senior Data Scientist</t>
   </si>
   <si>
-    <t xml:space="preserve">Weiterentwicklung der AROYA-Datenplattform (Anbau von Cannabis), u.a. durch spezifische Auswertung von Sensordaten (Boden, Atmosphäre)</t>
+    <t xml:space="preserve">Weiterentwicklung der AROYA-Datenplattform, u.a. durch spezifische Modellierungen auf Basis von Sensordaten (Boden, Atmosphäre)</t>
   </si>
   <si>
     <t xml:space="preserve">(Co-)Entwicklung diverser R-Packages (u.a. Analyse von 3D-Bilddaten, Bereitstellung von Satellitendaten, Implementierung eines physikalischen Biomassemodells)</t>
@@ -57,10 +57,13 @@
     <t xml:space="preserve">(Co-)Entwicklung von Deployment-Pipelines mittels CI/CD, Docker und AWS ECR</t>
   </si>
   <si>
+    <t xml:space="preserve">Div. DevOps-Tätigkeiten, u.a. Bereitstellung und Wartung der teameigenen Cloud Infrastruktur (RStudio Server, Shiny Server mittels AWS EC2) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Entwicklung einer QUARTO-basierten Webseite zum Wissensmanagement</t>
   </si>
   <si>
-    <t xml:space="preserve">Bereitstellung und Wartung der teameigenen Cloud Infrastruktur (RStudio Server, Shiny Server mittels AWS EC2)</t>
+    <t xml:space="preserve">Modellierung von Pflanzenparametern aus 3D-Punktdaten</t>
   </si>
   <si>
     <t xml:space="preserve">01/2014 - 06/2021</t>
@@ -69,46 +72,40 @@
     <t xml:space="preserve">GfK Geomarketing GmbH</t>
   </si>
   <si>
-    <t xml:space="preserve">Teamlead (Geo-)Data Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhaltliche und strategische Weiterentwicklung des Produktportfolios durch Integration von externen Datenquellen (u.a. App-Daten)</t>
+    <t xml:space="preserve">Lead Data Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teilnahme u.a. an FK-Seminar, Talentförderungsprogramm “Orange Future”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachliche und disziplinarische Führung eines Teams von 8 MitarbeiterInnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modellierung von Passantenfreuquenzen aus Mobilfunk- und Appdaten (aktive Mitarbeit + fachliche Leitung des Projektteams)</t>
   </si>
   <si>
     <t xml:space="preserve">Konzeption und Implementierung von standardisierten Datenproduktionspipelines</t>
   </si>
   <si>
-    <t xml:space="preserve">Fachliche Anleitung und disziplinarische Führung von 6-8 KollegInnen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GfK Orange Future 2017-2018 (Talentsichtungsprogramm) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GfK Führungskräfteseminar 2014-2015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/2011 – 12/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GfK Geomarketing GmbH, GfK SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lead Data Scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachliche Leitung eines großen Forschungsprojektes zur Inwertsetzung von Mobilfunkdaten mit einem internationalen Projektteam</t>
+    <t xml:space="preserve">Inhaltliche und strategische Weiterentwicklung des Produktportfolios, z.B. durch Datenintegration </t>
   </si>
   <si>
     <t xml:space="preserve">09/2006 - 12/2013</t>
   </si>
   <si>
-    <t xml:space="preserve">(Senior) Research Specialist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leitung und Bearbeitung von Kundenprojekten mit spezifischen Fragestellungen (Zielgruppenanalysen, Expansionsplanung, u.a.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modellierung regionaler Marktkennziffern (Kaufkraftpotenziale, Marktvolumina), Schwerpunkt Mikrogeographie</t>
+    <t xml:space="preserve">(Senior) Data Scientist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellung einer mikrogeographischen Datenbank durch Integration hochauflösender Adress-, Panel- und amtlicher Geodaten mit SAS / R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modellierung regionaler Marktkennziffern (z.B. Kaufkraft, Soziodemographie, Produktaffinitäten) mittels maschinellem Lernen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kundenstrukturanalysen (z.B. Zielgruppen, Segmentierungen, etc.)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auswertung von OpenStreetMap-Daten zur Generierung von Vorhersagevariablen  </t>
   </si>
   <si>
     <t xml:space="preserve">07/2003 - 07/2006</t>
@@ -120,7 +117,7 @@
     <t xml:space="preserve">Wiss. Mitarbeiter </t>
   </si>
   <si>
-    <t xml:space="preserve">Div. Lehrveranstlatungen, Schwerpunkt Methodik</t>
+    <t xml:space="preserve">Div. Lehrveranstlatungen mit quantitativem Schwerpunkt (u.a.  Remote Sensing, Geoinformationssysteme)</t>
   </si>
   <si>
     <t xml:space="preserve">institution</t>
@@ -330,13 +327,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.02"/>
@@ -429,42 +426,42 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>17</v>
@@ -472,87 +469,167 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -576,7 +653,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.22"/>
@@ -588,55 +665,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -657,17 +734,17 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="67.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,24 +752,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -700,13 +777,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
@@ -714,13 +791,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -728,13 +805,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
@@ -742,13 +819,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -756,13 +833,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>6</v>
@@ -770,13 +847,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -784,13 +861,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>8</v>
@@ -798,13 +875,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>9</v>
@@ -812,13 +889,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
